--- a/pred_ohlcv/54/2019-10-19 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 ELF ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>21893.2259</v>
+        <v>6531.5539</v>
       </c>
       <c r="G2" t="n">
-        <v>98.89333333333333</v>
+        <v>98.91499999999998</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>98.8</v>
       </c>
       <c r="C3" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D3" t="n">
         <v>98.8</v>
       </c>
       <c r="E3" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>7129.452</v>
+        <v>21893.2259</v>
       </c>
       <c r="G3" t="n">
-        <v>98.87166666666666</v>
+        <v>98.89333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="C4" t="n">
         <v>98.7</v>
       </c>
       <c r="D4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="E4" t="n">
         <v>98.7</v>
       </c>
       <c r="F4" t="n">
-        <v>20563.104</v>
+        <v>7129.452</v>
       </c>
       <c r="G4" t="n">
-        <v>98.85666666666664</v>
+        <v>98.87166666666666</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F5" t="n">
-        <v>10586.2749</v>
+        <v>20563.104</v>
       </c>
       <c r="G5" t="n">
-        <v>98.83333333333331</v>
+        <v>98.85666666666664</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>98.59999999999999</v>
@@ -521,15 +538,18 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>909.8126999999999</v>
+        <v>10586.2749</v>
       </c>
       <c r="G6" t="n">
-        <v>98.80999999999999</v>
+        <v>98.83333333333331</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F7" t="n">
-        <v>439</v>
+        <v>909.8126999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>98.78333333333332</v>
+        <v>98.80999999999999</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>507.336</v>
+        <v>439</v>
       </c>
       <c r="G8" t="n">
-        <v>98.75499999999998</v>
+        <v>98.78333333333332</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D9" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E9" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F9" t="n">
-        <v>14542.8304</v>
+        <v>507.336</v>
       </c>
       <c r="G9" t="n">
-        <v>98.73499999999999</v>
+        <v>98.75499999999998</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>98.2</v>
       </c>
       <c r="C10" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>989.8912</v>
+        <v>14542.8304</v>
       </c>
       <c r="G10" t="n">
-        <v>98.70333333333333</v>
+        <v>98.73499999999999</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C11" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E11" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>494.9456</v>
+        <v>989.8912</v>
       </c>
       <c r="G11" t="n">
-        <v>98.67166666666667</v>
+        <v>98.70333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>494.9456</v>
       </c>
       <c r="G12" t="n">
-        <v>98.64166666666667</v>
+        <v>98.67166666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="C13" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="D13" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="E13" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="F13" t="n">
-        <v>6517.5362</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>98.61499999999999</v>
+        <v>98.64166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="C14" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F14" t="n">
-        <v>768.8953</v>
+        <v>6517.5362</v>
       </c>
       <c r="G14" t="n">
-        <v>98.60166666666666</v>
+        <v>98.61499999999999</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="C15" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="E15" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>2677.0237</v>
+        <v>768.8953</v>
       </c>
       <c r="G15" t="n">
-        <v>98.595</v>
+        <v>98.60166666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>98.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1857.7578</v>
+        <v>2677.0237</v>
       </c>
       <c r="G16" t="n">
-        <v>98.59999999999999</v>
+        <v>98.595</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1857.7578</v>
+      </c>
+      <c r="G17" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="C17" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>506</v>
-      </c>
-      <c r="G17" t="n">
-        <v>98.61166666666668</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>128.4109</v>
+        <v>506</v>
       </c>
       <c r="G18" t="n">
-        <v>98.62833333333334</v>
+        <v>98.61166666666668</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98.3</v>
+        <v>98.8</v>
       </c>
       <c r="C19" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="D19" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="E19" t="n">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="F19" t="n">
-        <v>7646.4843</v>
+        <v>128.4109</v>
       </c>
       <c r="G19" t="n">
-        <v>98.65000000000002</v>
+        <v>98.62833333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C20" t="n">
         <v>99.2</v>
@@ -885,15 +944,18 @@
         <v>99.2</v>
       </c>
       <c r="E20" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="F20" t="n">
-        <v>28304.5059</v>
+        <v>7646.4843</v>
       </c>
       <c r="G20" t="n">
-        <v>98.67166666666668</v>
+        <v>98.65000000000002</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D21" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="E21" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>21888.3078</v>
+        <v>28304.5059</v>
       </c>
       <c r="G21" t="n">
-        <v>98.69666666666669</v>
+        <v>98.67166666666668</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C22" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1003.7722</v>
+        <v>21888.3078</v>
       </c>
       <c r="G22" t="n">
-        <v>98.71333333333335</v>
+        <v>98.69666666666669</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="E23" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>1003.7722</v>
       </c>
       <c r="G23" t="n">
-        <v>98.73500000000003</v>
+        <v>98.71333333333335</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>99.2</v>
       </c>
       <c r="F24" t="n">
-        <v>3812.2925</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="n">
-        <v>98.75166666666669</v>
+        <v>98.73500000000003</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E25" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F25" t="n">
-        <v>3208.7275</v>
+        <v>3812.2925</v>
       </c>
       <c r="G25" t="n">
-        <v>98.76833333333336</v>
+        <v>98.75166666666669</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>28155</v>
+        <v>3208.7275</v>
       </c>
       <c r="G26" t="n">
-        <v>98.77500000000003</v>
+        <v>98.76833333333336</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>13755.8171</v>
+        <v>28155</v>
       </c>
       <c r="G27" t="n">
-        <v>98.80500000000004</v>
+        <v>98.77500000000003</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C28" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
         <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F28" t="n">
-        <v>75009.1875</v>
+        <v>13755.8171</v>
       </c>
       <c r="G28" t="n">
-        <v>98.83000000000003</v>
+        <v>98.80500000000004</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>43911.9118</v>
+        <v>75009.1875</v>
       </c>
       <c r="G29" t="n">
-        <v>98.85000000000004</v>
+        <v>98.83000000000003</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>101</v>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>25076.3267</v>
+        <v>43911.9118</v>
       </c>
       <c r="G30" t="n">
-        <v>98.88500000000003</v>
+        <v>98.85000000000004</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
         <v>101</v>
@@ -1171,15 +1263,18 @@
         <v>101</v>
       </c>
       <c r="E31" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>201271.3065</v>
+        <v>25076.3267</v>
       </c>
       <c r="G31" t="n">
-        <v>98.92000000000004</v>
+        <v>98.88500000000003</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>101</v>
       </c>
       <c r="F32" t="n">
-        <v>50033.7029</v>
+        <v>201271.3065</v>
       </c>
       <c r="G32" t="n">
-        <v>98.95333333333338</v>
+        <v>98.92000000000004</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,22 +1315,25 @@
         <v>101</v>
       </c>
       <c r="C33" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" t="n">
         <v>101</v>
       </c>
       <c r="F33" t="n">
-        <v>6942.8028</v>
+        <v>50033.7029</v>
       </c>
       <c r="G33" t="n">
-        <v>99.00166666666671</v>
+        <v>98.95333333333338</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1240,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="n">
         <v>102</v>
@@ -1249,15 +1350,18 @@
         <v>102</v>
       </c>
       <c r="E34" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" t="n">
-        <v>22509.0098</v>
+        <v>6942.8028</v>
       </c>
       <c r="G34" t="n">
-        <v>99.05000000000003</v>
+        <v>99.00166666666671</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>102</v>
       </c>
       <c r="F35" t="n">
-        <v>35424.843</v>
+        <v>22509.0098</v>
       </c>
       <c r="G35" t="n">
-        <v>99.09833333333336</v>
+        <v>99.05000000000003</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>102</v>
       </c>
       <c r="F36" t="n">
-        <v>36351</v>
+        <v>35424.843</v>
       </c>
       <c r="G36" t="n">
-        <v>99.15000000000003</v>
+        <v>99.09833333333336</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" t="n">
-        <v>51946.9125</v>
+        <v>36351</v>
       </c>
       <c r="G37" t="n">
-        <v>99.21500000000002</v>
+        <v>99.15000000000003</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>103</v>
       </c>
       <c r="F38" t="n">
-        <v>8217.9611</v>
+        <v>51946.9125</v>
       </c>
       <c r="G38" t="n">
-        <v>99.27333333333335</v>
+        <v>99.21500000000002</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>103</v>
       </c>
       <c r="C39" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" t="n">
         <v>103</v>
       </c>
       <c r="E39" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F39" t="n">
-        <v>5259.7597</v>
+        <v>8217.9611</v>
       </c>
       <c r="G39" t="n">
-        <v>99.31333333333335</v>
+        <v>99.27333333333335</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>103</v>
       </c>
       <c r="C40" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" t="n">
         <v>103</v>
       </c>
       <c r="E40" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" t="n">
-        <v>110</v>
+        <v>5259.7597</v>
       </c>
       <c r="G40" t="n">
-        <v>99.37833333333334</v>
+        <v>99.31333333333335</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>103</v>
       </c>
       <c r="C41" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
         <v>103</v>
       </c>
       <c r="E41" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F41" t="n">
-        <v>42214.1048</v>
+        <v>110</v>
       </c>
       <c r="G41" t="n">
-        <v>99.42833333333334</v>
+        <v>99.37833333333334</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="n">
         <v>102</v>
       </c>
       <c r="D42" t="n">
+        <v>103</v>
+      </c>
+      <c r="E42" t="n">
         <v>102</v>
       </c>
-      <c r="E42" t="n">
-        <v>101</v>
-      </c>
       <c r="F42" t="n">
-        <v>8936.929599999999</v>
+        <v>42214.1048</v>
       </c>
       <c r="G42" t="n">
-        <v>99.48333333333335</v>
+        <v>99.42833333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1483,15 +1611,18 @@
         <v>102</v>
       </c>
       <c r="E43" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" t="n">
-        <v>948.4525</v>
+        <v>8936.929599999999</v>
       </c>
       <c r="G43" t="n">
-        <v>99.53833333333336</v>
+        <v>99.48333333333335</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>102</v>
       </c>
       <c r="F44" t="n">
-        <v>51.5178</v>
+        <v>948.4525</v>
       </c>
       <c r="G44" t="n">
-        <v>99.59833333333336</v>
+        <v>99.53833333333336</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" t="n">
-        <v>86261.3364</v>
+        <v>51.5178</v>
       </c>
       <c r="G45" t="n">
-        <v>99.65166666666669</v>
+        <v>99.59833333333336</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>101</v>
       </c>
       <c r="F46" t="n">
-        <v>1948.935</v>
+        <v>86261.3364</v>
       </c>
       <c r="G46" t="n">
-        <v>99.6866666666667</v>
+        <v>99.65166666666669</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>101</v>
       </c>
       <c r="F47" t="n">
-        <v>6470.7425</v>
+        <v>1948.935</v>
       </c>
       <c r="G47" t="n">
-        <v>99.72000000000003</v>
+        <v>99.6866666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" t="n">
-        <v>4984.7405</v>
+        <v>6470.7425</v>
       </c>
       <c r="G48" t="n">
-        <v>99.74333333333335</v>
+        <v>99.72000000000003</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>2492.3703</v>
+        <v>4984.7405</v>
       </c>
       <c r="G49" t="n">
-        <v>99.76833333333336</v>
+        <v>99.74333333333335</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>54.8625</v>
+        <v>2492.3703</v>
       </c>
       <c r="G50" t="n">
-        <v>99.79333333333335</v>
+        <v>99.76833333333336</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>934.3499</v>
+        <v>54.8625</v>
       </c>
       <c r="G51" t="n">
-        <v>99.81833333333336</v>
+        <v>99.79333333333335</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
         <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>12455.4984</v>
+        <v>934.3499</v>
       </c>
       <c r="G52" t="n">
-        <v>99.83500000000002</v>
+        <v>99.81833333333336</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D53" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F53" t="n">
-        <v>76.7073</v>
+        <v>12455.4984</v>
       </c>
       <c r="G53" t="n">
-        <v>99.85166666666669</v>
+        <v>99.83500000000002</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="F54" t="n">
-        <v>2571.2944</v>
+        <v>76.7073</v>
       </c>
       <c r="G54" t="n">
-        <v>99.86666666666669</v>
+        <v>99.85166666666669</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>69605.7977</v>
+        <v>2571.2944</v>
       </c>
       <c r="G55" t="n">
-        <v>99.90666666666668</v>
+        <v>99.86666666666669</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1821,15 +1988,18 @@
         <v>101</v>
       </c>
       <c r="E56" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>296.9108</v>
+        <v>69605.7977</v>
       </c>
       <c r="G56" t="n">
-        <v>99.94000000000001</v>
+        <v>99.90666666666668</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>101</v>
       </c>
       <c r="F57" t="n">
-        <v>4795.5374</v>
+        <v>296.9108</v>
       </c>
       <c r="G57" t="n">
-        <v>99.97333333333334</v>
+        <v>99.94000000000001</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>101</v>
       </c>
       <c r="F58" t="n">
-        <v>14784.2178</v>
+        <v>4795.5374</v>
       </c>
       <c r="G58" t="n">
-        <v>100.0066666666667</v>
+        <v>99.97333333333334</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>101</v>
       </c>
       <c r="F59" t="n">
-        <v>9366.999900000001</v>
+        <v>14784.2178</v>
       </c>
       <c r="G59" t="n">
-        <v>100.04</v>
+        <v>100.0066666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>101</v>
       </c>
       <c r="F60" t="n">
-        <v>22966.0172</v>
+        <v>9366.999900000001</v>
       </c>
       <c r="G60" t="n">
-        <v>100.0716666666667</v>
+        <v>100.04</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>101</v>
       </c>
       <c r="C61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" t="n">
         <v>101</v>
       </c>
       <c r="F61" t="n">
-        <v>2290</v>
+        <v>22966.0172</v>
       </c>
       <c r="G61" t="n">
-        <v>100.12</v>
+        <v>100.0716666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>101</v>
       </c>
       <c r="C62" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D62" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" t="n">
         <v>101</v>
       </c>
       <c r="F62" t="n">
-        <v>2352.9999</v>
+        <v>2290</v>
       </c>
       <c r="G62" t="n">
-        <v>100.16</v>
+        <v>100.12</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>101</v>
       </c>
       <c r="F63" t="n">
-        <v>2492.5072</v>
+        <v>2352.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>100.1983333333333</v>
+        <v>100.16</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>101</v>
       </c>
       <c r="F64" t="n">
-        <v>429</v>
+        <v>2492.5072</v>
       </c>
       <c r="G64" t="n">
-        <v>100.2366666666667</v>
+        <v>100.1983333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>101</v>
       </c>
       <c r="F65" t="n">
-        <v>30276</v>
+        <v>429</v>
       </c>
       <c r="G65" t="n">
-        <v>100.2766666666667</v>
+        <v>100.2366666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>101</v>
       </c>
       <c r="C66" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D66" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" t="n">
         <v>101</v>
       </c>
       <c r="F66" t="n">
-        <v>55371.8555</v>
+        <v>30276</v>
       </c>
       <c r="G66" t="n">
-        <v>100.3333333333333</v>
+        <v>100.2766666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,10 +2298,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>101</v>
+      </c>
+      <c r="C67" t="n">
         <v>102</v>
-      </c>
-      <c r="C67" t="n">
-        <v>101</v>
       </c>
       <c r="D67" t="n">
         <v>102</v>
@@ -2110,12 +2310,15 @@
         <v>101</v>
       </c>
       <c r="F67" t="n">
-        <v>184.8137</v>
+        <v>55371.8555</v>
       </c>
       <c r="G67" t="n">
-        <v>100.3766666666667</v>
+        <v>100.3333333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" t="n">
         <v>101</v>
       </c>
       <c r="D68" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68" t="n">
         <v>101</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>184.8137</v>
       </c>
       <c r="G68" t="n">
-        <v>100.4216666666667</v>
+        <v>100.3766666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>101</v>
       </c>
       <c r="F69" t="n">
-        <v>1500.2181</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>100.4616666666666</v>
+        <v>100.4216666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>101</v>
       </c>
       <c r="F70" t="n">
-        <v>10074.9979</v>
+        <v>1500.2181</v>
       </c>
       <c r="G70" t="n">
-        <v>100.51</v>
+        <v>100.4616666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E71" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F71" t="n">
-        <v>14.8137</v>
+        <v>10074.9979</v>
       </c>
       <c r="G71" t="n">
-        <v>100.575</v>
+        <v>100.51</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F72" t="n">
-        <v>10234.1524</v>
+        <v>14.8137</v>
       </c>
       <c r="G72" t="n">
-        <v>100.605</v>
+        <v>100.575</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E73" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>34.8316</v>
+        <v>10234.1524</v>
       </c>
       <c r="G73" t="n">
-        <v>100.6483333333333</v>
+        <v>100.605</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>2387.0376</v>
+        <v>34.8316</v>
       </c>
       <c r="G74" t="n">
-        <v>100.675</v>
+        <v>100.6483333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F75" t="n">
-        <v>507.548</v>
+        <v>2387.0376</v>
       </c>
       <c r="G75" t="n">
-        <v>100.7</v>
+        <v>100.675</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>99.8</v>
       </c>
       <c r="C76" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D76" t="n">
         <v>99.8</v>
       </c>
       <c r="E76" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F76" t="n">
-        <v>6997.8999</v>
+        <v>507.548</v>
       </c>
       <c r="G76" t="n">
-        <v>100.7233333333333</v>
+        <v>100.7</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C77" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="D77" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E77" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="F77" t="n">
-        <v>32374.9654</v>
+        <v>6997.8999</v>
       </c>
       <c r="G77" t="n">
-        <v>100.7133333333333</v>
+        <v>100.7233333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>98</v>
       </c>
       <c r="D78" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E78" t="n">
         <v>98</v>
       </c>
       <c r="F78" t="n">
-        <v>591.4249</v>
+        <v>32374.9654</v>
       </c>
       <c r="G78" t="n">
-        <v>100.7</v>
+        <v>100.7133333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>98</v>
       </c>
       <c r="C79" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D79" t="n">
         <v>98</v>
       </c>
       <c r="E79" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="F79" t="n">
-        <v>1045.7289</v>
+        <v>591.4249</v>
       </c>
       <c r="G79" t="n">
-        <v>100.6783333333333</v>
+        <v>100.7</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>98</v>
       </c>
       <c r="C80" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>98</v>
       </c>
       <c r="E80" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>779.5201</v>
+        <v>1045.7289</v>
       </c>
       <c r="G80" t="n">
-        <v>100.6583333333333</v>
+        <v>100.6783333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>98</v>
       </c>
       <c r="C81" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D81" t="n">
         <v>98</v>
       </c>
       <c r="E81" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="F81" t="n">
-        <v>18404.6375</v>
+        <v>779.5201</v>
       </c>
       <c r="G81" t="n">
-        <v>100.6333333333333</v>
+        <v>100.6583333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C82" t="n">
-        <v>98.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E82" t="n">
-        <v>98.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F82" t="n">
-        <v>1325.7099</v>
+        <v>18404.6375</v>
       </c>
       <c r="G82" t="n">
-        <v>100.625</v>
+        <v>100.6333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1900</v>
+        <v>1325.7099</v>
       </c>
       <c r="G83" t="n">
-        <v>100.6166666666666</v>
+        <v>100.625</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="D84" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E84" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>8679.165800000001</v>
+        <v>1900</v>
       </c>
       <c r="G84" t="n">
-        <v>100.6016666666666</v>
+        <v>100.6166666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="C85" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="D85" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E85" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="F85" t="n">
-        <v>1346.101</v>
+        <v>8679.165800000001</v>
       </c>
       <c r="G85" t="n">
-        <v>100.5833333333333</v>
+        <v>100.6016666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C86" t="n">
         <v>98</v>
       </c>
       <c r="D86" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E86" t="n">
         <v>98</v>
       </c>
       <c r="F86" t="n">
-        <v>6057.4546</v>
+        <v>1346.101</v>
       </c>
       <c r="G86" t="n">
-        <v>100.565</v>
+        <v>100.5833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="C87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="D87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="E87" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="F87" t="n">
-        <v>1458.9918</v>
+        <v>6057.4546</v>
       </c>
       <c r="G87" t="n">
-        <v>100.5433333333333</v>
+        <v>100.565</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E88" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F88" t="n">
-        <v>489.3068</v>
+        <v>1458.9918</v>
       </c>
       <c r="G88" t="n">
-        <v>100.5133333333333</v>
+        <v>100.5433333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>12000</v>
+        <v>489.3068</v>
       </c>
       <c r="G89" t="n">
-        <v>100.495</v>
+        <v>100.5133333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C90" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D90" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E90" t="n">
-        <v>98.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="F90" t="n">
-        <v>244.9147</v>
+        <v>12000</v>
       </c>
       <c r="G90" t="n">
-        <v>100.46</v>
+        <v>100.495</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>959.0227</v>
+        <v>244.9147</v>
       </c>
       <c r="G91" t="n">
-        <v>100.42</v>
+        <v>100.46</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>4927.6758</v>
+        <v>959.0227</v>
       </c>
       <c r="G92" t="n">
-        <v>100.375</v>
+        <v>100.42</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C93" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D93" t="n">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="E93" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F93" t="n">
-        <v>2644.8213</v>
+        <v>4927.6758</v>
       </c>
       <c r="G93" t="n">
-        <v>100.31</v>
+        <v>100.375</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>98.40000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D94" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>3000</v>
+        <v>2644.8213</v>
       </c>
       <c r="G94" t="n">
-        <v>100.25</v>
+        <v>100.31</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>13</v>
+        <v>3000</v>
       </c>
       <c r="G95" t="n">
-        <v>100.1933333333333</v>
+        <v>100.25</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2861,15 +3148,18 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>1094</v>
+        <v>13</v>
       </c>
       <c r="G96" t="n">
-        <v>100.1366666666667</v>
+        <v>100.1933333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2887,15 +3177,18 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F97" t="n">
-        <v>25</v>
+        <v>1094</v>
       </c>
       <c r="G97" t="n">
-        <v>100.0633333333333</v>
+        <v>100.1366666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>98.59999999999999</v>
@@ -2913,15 +3206,18 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>596.7473</v>
+        <v>25</v>
       </c>
       <c r="G98" t="n">
-        <v>99.99000000000001</v>
+        <v>100.0633333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,7 +3226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C99" t="n">
         <v>98.59999999999999</v>
@@ -2939,15 +3235,18 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F99" t="n">
-        <v>350</v>
+        <v>596.7473</v>
       </c>
       <c r="G99" t="n">
-        <v>99.93333333333335</v>
+        <v>99.99000000000001</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G100" t="n">
-        <v>99.86000000000003</v>
+        <v>99.93333333333335</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>52</v>
+        <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>99.80333333333336</v>
+        <v>99.86000000000003</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>52</v>
       </c>
       <c r="G102" t="n">
-        <v>99.74000000000002</v>
+        <v>99.80333333333336</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,21 +3345,24 @@
         <v>98.2</v>
       </c>
       <c r="C103" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="D103" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="E103" t="n">
         <v>98.2</v>
       </c>
       <c r="F103" t="n">
-        <v>3076.2115</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="n">
-        <v>99.67833333333336</v>
+        <v>99.74000000000002</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E104" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>3076.2115</v>
       </c>
       <c r="G104" t="n">
-        <v>99.63500000000002</v>
+        <v>99.67833333333336</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D105" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>1874.3766</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>99.60166666666669</v>
+        <v>99.63500000000002</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C106" t="n">
         <v>99</v>
       </c>
-      <c r="C106" t="n">
-        <v>99.5</v>
-      </c>
       <c r="D106" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E106" t="n">
         <v>99</v>
       </c>
       <c r="F106" t="n">
-        <v>7153.2996</v>
+        <v>1874.3766</v>
       </c>
       <c r="G106" t="n">
-        <v>99.57666666666668</v>
+        <v>99.60166666666669</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3458,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="C107" t="n">
         <v>99.5</v>
@@ -3147,15 +3467,18 @@
         <v>99.5</v>
       </c>
       <c r="E107" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F107" t="n">
-        <v>535</v>
+        <v>7153.2996</v>
       </c>
       <c r="G107" t="n">
-        <v>99.55166666666669</v>
+        <v>99.57666666666668</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F108" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="G108" t="n">
-        <v>99.54500000000003</v>
+        <v>99.55166666666669</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>49.875</v>
+        <v>450</v>
       </c>
       <c r="G109" t="n">
-        <v>99.53500000000003</v>
+        <v>99.54500000000003</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>101</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>101</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>35799.4809</v>
+        <v>49.875</v>
       </c>
       <c r="G110" t="n">
-        <v>99.55166666666669</v>
+        <v>99.53500000000003</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="D111" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="E111" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="F111" t="n">
-        <v>8857.4563</v>
+        <v>35799.4809</v>
       </c>
       <c r="G111" t="n">
-        <v>99.54666666666668</v>
+        <v>99.55166666666669</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>99.7</v>
       </c>
       <c r="C112" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="D112" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="E112" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>2112.2603</v>
+        <v>8857.4563</v>
       </c>
       <c r="G112" t="n">
         <v>99.54666666666668</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C113" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D113" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E113" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="F113" t="n">
-        <v>8925.320100000001</v>
+        <v>2112.2603</v>
       </c>
       <c r="G113" t="n">
-        <v>99.55000000000001</v>
+        <v>99.54666666666668</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>1658</v>
+        <v>8925.320100000001</v>
       </c>
       <c r="G114" t="n">
         <v>99.55000000000001</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>6057.4547</v>
+        <v>1658</v>
       </c>
       <c r="G115" t="n">
-        <v>99.53166666666668</v>
+        <v>99.55000000000001</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>5667.4133</v>
+        <v>6057.4547</v>
       </c>
       <c r="G116" t="n">
-        <v>99.51333333333334</v>
+        <v>99.53166666666668</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D117" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>30.0401</v>
+        <v>5667.4133</v>
       </c>
       <c r="G117" t="n">
-        <v>99.48666666666666</v>
+        <v>99.51333333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>25743.1876</v>
+        <v>30.0401</v>
       </c>
       <c r="G118" t="n">
-        <v>99.46166666666666</v>
+        <v>99.48666666666666</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="C119" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="D119" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="E119" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>3040.0341</v>
+        <v>25743.1876</v>
       </c>
       <c r="G119" t="n">
-        <v>99.43166666666666</v>
+        <v>99.46166666666666</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C120" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="D120" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="E120" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F120" t="n">
-        <v>6750.9795</v>
+        <v>3040.0341</v>
       </c>
       <c r="G120" t="n">
-        <v>99.41</v>
+        <v>99.43166666666666</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D121" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E121" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>289.7235</v>
+        <v>6750.9795</v>
       </c>
       <c r="G121" t="n">
-        <v>99.36999999999999</v>
+        <v>99.41</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C122" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E122" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>365.6509</v>
+        <v>289.7235</v>
       </c>
       <c r="G122" t="n">
-        <v>99.34666666666666</v>
+        <v>99.36999999999999</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>100</v>
+      </c>
+      <c r="C123" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C123" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="D123" t="n">
+        <v>100</v>
+      </c>
+      <c r="E123" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="E123" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="F123" t="n">
-        <v>415.3159</v>
+        <v>365.6509</v>
       </c>
       <c r="G123" t="n">
-        <v>99.31999999999999</v>
+        <v>99.34666666666666</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,21 +3954,24 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>1895.5394</v>
+        <v>415.3159</v>
       </c>
       <c r="G124" t="n">
-        <v>99.29833333333333</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C125" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E125" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D125" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E125" t="n">
-        <v>99.5</v>
-      </c>
       <c r="F125" t="n">
-        <v>2595.6288</v>
+        <v>1895.5394</v>
       </c>
       <c r="G125" t="n">
-        <v>99.27500000000001</v>
+        <v>99.29833333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,7 +4009,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C126" t="n">
         <v>99.59999999999999</v>
@@ -3641,15 +4018,18 @@
         <v>99.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F126" t="n">
-        <v>4244.7589</v>
+        <v>2595.6288</v>
       </c>
       <c r="G126" t="n">
-        <v>99.235</v>
+        <v>99.27500000000001</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D127" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>1013.2813</v>
+        <v>4244.7589</v>
       </c>
       <c r="G127" t="n">
-        <v>99.21000000000001</v>
+        <v>99.235</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C128" t="n">
         <v>99.5</v>
       </c>
       <c r="D128" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E128" t="n">
         <v>99.5</v>
       </c>
       <c r="F128" t="n">
-        <v>1182.2558</v>
+        <v>1013.2813</v>
       </c>
       <c r="G128" t="n">
-        <v>99.185</v>
+        <v>99.21000000000001</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>99.5</v>
       </c>
       <c r="F129" t="n">
-        <v>2100.9247</v>
+        <v>1182.2558</v>
       </c>
       <c r="G129" t="n">
-        <v>99.16000000000001</v>
+        <v>99.185</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E130" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F130" t="n">
-        <v>545.9325</v>
+        <v>2100.9247</v>
       </c>
       <c r="G130" t="n">
-        <v>99.14333333333335</v>
+        <v>99.16000000000001</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>100</v>
       </c>
       <c r="C131" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D131" t="n">
         <v>100</v>
       </c>
       <c r="E131" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F131" t="n">
-        <v>16718.7434</v>
+        <v>545.9325</v>
       </c>
       <c r="G131" t="n">
-        <v>99.10833333333333</v>
+        <v>99.14333333333335</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,10 +4183,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>100</v>
+      </c>
+      <c r="C132" t="n">
         <v>99.90000000000001</v>
-      </c>
-      <c r="C132" t="n">
-        <v>100</v>
       </c>
       <c r="D132" t="n">
         <v>100</v>
@@ -3800,12 +4195,15 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>21427.6397</v>
+        <v>16718.7434</v>
       </c>
       <c r="G132" t="n">
         <v>99.10833333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,7 +4212,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C133" t="n">
         <v>100</v>
@@ -3823,15 +4221,18 @@
         <v>100</v>
       </c>
       <c r="E133" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F133" t="n">
-        <v>3150.3</v>
+        <v>21427.6397</v>
       </c>
       <c r="G133" t="n">
-        <v>99.09166666666667</v>
+        <v>99.10833333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>100</v>
       </c>
       <c r="C134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E134" t="n">
         <v>100</v>
       </c>
       <c r="F134" t="n">
-        <v>6076.5035</v>
+        <v>3150.3</v>
       </c>
       <c r="G134" t="n">
-        <v>99.10833333333333</v>
+        <v>99.09166666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +4270,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C135" t="n">
         <v>101</v>
@@ -3875,15 +4279,18 @@
         <v>101</v>
       </c>
       <c r="E135" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F135" t="n">
-        <v>4371.9177</v>
+        <v>6076.5035</v>
       </c>
       <c r="G135" t="n">
-        <v>99.12833333333333</v>
+        <v>99.10833333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>101</v>
       </c>
       <c r="F136" t="n">
-        <v>5525.9999</v>
+        <v>4371.9177</v>
       </c>
       <c r="G136" t="n">
-        <v>99.15000000000001</v>
+        <v>99.12833333333333</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>101</v>
       </c>
       <c r="F137" t="n">
-        <v>3787.2601</v>
+        <v>5525.9999</v>
       </c>
       <c r="G137" t="n">
-        <v>99.2</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E138" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>3787.2601</v>
       </c>
       <c r="G138" t="n">
-        <v>99.26666666666667</v>
+        <v>99.2</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>102</v>
       </c>
       <c r="F139" t="n">
-        <v>3199</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>99.33500000000001</v>
+        <v>99.26666666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,25 +4415,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E140" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F140" t="n">
-        <v>7049.5163</v>
+        <v>3199</v>
       </c>
       <c r="G140" t="n">
-        <v>99.38500000000001</v>
+        <v>99.33500000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4022,25 +4444,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E141" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F141" t="n">
-        <v>1347.36</v>
+        <v>7049.5163</v>
       </c>
       <c r="G141" t="n">
-        <v>99.42000000000002</v>
+        <v>99.38500000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E142" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>1347.36</v>
       </c>
       <c r="G142" t="n">
-        <v>99.48000000000002</v>
+        <v>99.42000000000002</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E143" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F143" t="n">
-        <v>3071.645</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>99.50166666666669</v>
+        <v>99.48000000000002</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>100</v>
       </c>
       <c r="F144" t="n">
-        <v>1185.6799</v>
+        <v>3071.645</v>
       </c>
       <c r="G144" t="n">
-        <v>99.53000000000002</v>
+        <v>99.50166666666669</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E145" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F145" t="n">
-        <v>11</v>
+        <v>1185.6799</v>
       </c>
       <c r="G145" t="n">
-        <v>99.58000000000001</v>
+        <v>99.53000000000002</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>101</v>
       </c>
       <c r="C146" t="n">
-        <v>99.5</v>
+        <v>101</v>
       </c>
       <c r="D146" t="n">
         <v>101</v>
       </c>
       <c r="E146" t="n">
-        <v>99.5</v>
+        <v>101</v>
       </c>
       <c r="F146" t="n">
-        <v>16266.4166</v>
+        <v>11</v>
       </c>
       <c r="G146" t="n">
-        <v>99.60500000000002</v>
+        <v>99.58000000000001</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C147" t="n">
-        <v>102</v>
+        <v>99.5</v>
       </c>
       <c r="D147" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E147" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F147" t="n">
-        <v>1702.9722</v>
+        <v>16266.4166</v>
       </c>
       <c r="G147" t="n">
-        <v>99.66000000000003</v>
+        <v>99.60500000000002</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C148" t="n">
         <v>102</v>
@@ -4213,15 +4656,18 @@
         <v>102</v>
       </c>
       <c r="E148" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F148" t="n">
-        <v>17261.2141</v>
+        <v>1702.9722</v>
       </c>
       <c r="G148" t="n">
-        <v>99.72500000000001</v>
+        <v>99.66000000000003</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D149" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E149" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>4878.6831</v>
+        <v>17261.2141</v>
       </c>
       <c r="G149" t="n">
-        <v>99.76166666666668</v>
+        <v>99.72500000000001</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E150" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F150" t="n">
-        <v>98723.0453</v>
+        <v>4878.6831</v>
       </c>
       <c r="G150" t="n">
-        <v>99.78000000000002</v>
+        <v>99.76166666666668</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D151" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E151" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F151" t="n">
-        <v>12667.6104</v>
+        <v>98723.0453</v>
       </c>
       <c r="G151" t="n">
-        <v>99.82000000000001</v>
+        <v>99.78000000000002</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C152" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D152" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E152" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F152" t="n">
-        <v>5488.5246</v>
+        <v>12667.6104</v>
       </c>
       <c r="G152" t="n">
-        <v>99.84833333333334</v>
+        <v>99.82000000000001</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>100</v>
       </c>
       <c r="F153" t="n">
-        <v>12148.7645</v>
+        <v>5488.5246</v>
       </c>
       <c r="G153" t="n">
-        <v>99.88000000000001</v>
+        <v>99.84833333333334</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E154" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F154" t="n">
-        <v>22532.1413</v>
+        <v>12148.7645</v>
       </c>
       <c r="G154" t="n">
-        <v>99.905</v>
+        <v>99.88000000000001</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>901.2163</v>
+        <v>22532.1413</v>
       </c>
       <c r="G155" t="n">
-        <v>99.92833333333333</v>
+        <v>99.905</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E156" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F156" t="n">
-        <v>50.3762</v>
+        <v>901.2163</v>
       </c>
       <c r="G156" t="n">
-        <v>99.96833333333332</v>
+        <v>99.92833333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E157" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F157" t="n">
-        <v>466.343</v>
+        <v>50.3762</v>
       </c>
       <c r="G157" t="n">
-        <v>99.98999999999998</v>
+        <v>99.96833333333332</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,21 +4940,24 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E158" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>438.9295</v>
+        <v>466.343</v>
       </c>
       <c r="G158" t="n">
-        <v>100.03</v>
+        <v>99.98999999999998</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D159" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E159" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>3350</v>
+        <v>438.9295</v>
       </c>
       <c r="G159" t="n">
-        <v>100.0516666666666</v>
+        <v>100.03</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>27342.0809</v>
+        <v>3350</v>
       </c>
       <c r="G160" t="n">
-        <v>100.0666666666666</v>
+        <v>100.0516666666666</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C161" t="n">
         <v>99.5</v>
       </c>
       <c r="D161" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="E161" t="n">
         <v>99.5</v>
       </c>
       <c r="F161" t="n">
-        <v>3170.3318</v>
+        <v>27342.0809</v>
       </c>
       <c r="G161" t="n">
-        <v>100.0816666666666</v>
+        <v>100.0666666666666</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="C162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="D162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E162" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F162" t="n">
-        <v>883.9247</v>
+        <v>3170.3318</v>
       </c>
       <c r="G162" t="n">
-        <v>100.095</v>
+        <v>100.0816666666666</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C163" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="D163" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E163" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="F163" t="n">
-        <v>9671</v>
+        <v>883.9247</v>
       </c>
       <c r="G163" t="n">
-        <v>100.1016666666666</v>
+        <v>100.095</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>98.90000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D164" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="F164" t="n">
-        <v>8372.588400000001</v>
+        <v>9671</v>
       </c>
       <c r="G164" t="n">
-        <v>100.0933333333333</v>
+        <v>100.1016666666666</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>11329.0148</v>
+        <v>8372.588400000001</v>
       </c>
       <c r="G165" t="n">
-        <v>100.0883333333333</v>
+        <v>100.0933333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E166" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F166" t="n">
-        <v>428</v>
+        <v>11329.0148</v>
       </c>
       <c r="G166" t="n">
-        <v>100.0733333333333</v>
+        <v>100.0883333333333</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E167" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>1213</v>
+        <v>428</v>
       </c>
       <c r="G167" t="n">
-        <v>100.0566666666666</v>
+        <v>100.0733333333333</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,21 +5230,24 @@
         <v>98.5</v>
       </c>
       <c r="C168" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="D168" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="E168" t="n">
         <v>98.5</v>
       </c>
       <c r="F168" t="n">
-        <v>2500</v>
+        <v>1213</v>
       </c>
       <c r="G168" t="n">
-        <v>100.0416666666666</v>
+        <v>100.0566666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4753,21 +5259,24 @@
         <v>98.5</v>
       </c>
       <c r="C169" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D169" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="E169" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="F169" t="n">
-        <v>34711.767</v>
+        <v>2500</v>
       </c>
       <c r="G169" t="n">
-        <v>100.0333333333333</v>
+        <v>100.0416666666666</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="C170" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="F170" t="n">
-        <v>12081.7332</v>
+        <v>34711.767</v>
       </c>
       <c r="G170" t="n">
-        <v>99.98833333333327</v>
+        <v>100.0333333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C171" t="n">
         <v>98.3</v>
       </c>
       <c r="D171" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="E171" t="n">
         <v>98.3</v>
       </c>
       <c r="F171" t="n">
-        <v>11293.7147</v>
+        <v>12081.7332</v>
       </c>
       <c r="G171" t="n">
-        <v>99.96499999999995</v>
+        <v>99.98833333333327</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="C172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="E172" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="F172" t="n">
-        <v>6004.6683</v>
+        <v>11293.7147</v>
       </c>
       <c r="G172" t="n">
-        <v>99.93833333333328</v>
+        <v>99.96499999999995</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4857,21 +5375,24 @@
         <v>98.2</v>
       </c>
       <c r="C173" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="D173" t="n">
         <v>98.2</v>
       </c>
       <c r="E173" t="n">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="F173" t="n">
-        <v>25706.5352</v>
+        <v>6004.6683</v>
       </c>
       <c r="G173" t="n">
-        <v>99.90666666666661</v>
+        <v>99.93833333333328</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C174" t="n">
         <v>98</v>
       </c>
       <c r="D174" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="E174" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F174" t="n">
-        <v>28299.9998</v>
+        <v>25706.5352</v>
       </c>
       <c r="G174" t="n">
-        <v>99.87499999999996</v>
+        <v>99.90666666666661</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C175" t="n">
+        <v>98</v>
+      </c>
+      <c r="D175" t="n">
+        <v>98</v>
+      </c>
+      <c r="E175" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="D175" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="E175" t="n">
-        <v>97.7</v>
-      </c>
       <c r="F175" t="n">
-        <v>6097.0509</v>
+        <v>28299.9998</v>
       </c>
       <c r="G175" t="n">
-        <v>99.84166666666663</v>
+        <v>99.87499999999996</v>
       </c>
       <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="C176" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="F176" t="n">
-        <v>8773.377399999999</v>
+        <v>6097.0509</v>
       </c>
       <c r="G176" t="n">
-        <v>99.81499999999997</v>
+        <v>99.84166666666663</v>
       </c>
       <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="C177" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D177" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E177" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="F177" t="n">
-        <v>632.5281</v>
+        <v>8773.377399999999</v>
       </c>
       <c r="G177" t="n">
-        <v>99.78999999999996</v>
+        <v>99.81499999999997</v>
       </c>
       <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +5517,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="C178" t="n">
         <v>97.90000000000001</v>
@@ -4993,15 +5526,18 @@
         <v>97.90000000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F178" t="n">
-        <v>470.1736</v>
+        <v>632.5281</v>
       </c>
       <c r="G178" t="n">
-        <v>99.76333333333329</v>
+        <v>99.78999999999996</v>
       </c>
       <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>97.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>285.9065</v>
+        <v>470.1736</v>
       </c>
       <c r="G179" t="n">
-        <v>99.73166666666663</v>
+        <v>99.76333333333329</v>
       </c>
       <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5039,21 +5578,24 @@
         <v>98</v>
       </c>
       <c r="C180" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D180" t="n">
         <v>98</v>
       </c>
       <c r="E180" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F180" t="n">
-        <v>322.7259</v>
+        <v>285.9065</v>
       </c>
       <c r="G180" t="n">
-        <v>99.70166666666663</v>
+        <v>99.73166666666663</v>
       </c>
       <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,10 +5604,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>98</v>
+      </c>
+      <c r="C181" t="n">
         <v>97.90000000000001</v>
-      </c>
-      <c r="C181" t="n">
-        <v>98</v>
       </c>
       <c r="D181" t="n">
         <v>98</v>
@@ -5074,12 +5616,15 @@
         <v>97.90000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>124.4561</v>
+        <v>322.7259</v>
       </c>
       <c r="G181" t="n">
-        <v>99.67499999999995</v>
+        <v>99.70166666666663</v>
       </c>
       <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C182" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D182" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="E182" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>124.4561</v>
       </c>
       <c r="G182" t="n">
-        <v>99.64999999999995</v>
+        <v>99.67499999999995</v>
       </c>
       <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C183" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D183" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E183" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F183" t="n">
-        <v>3188.7538</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>99.62499999999996</v>
+        <v>99.64999999999995</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F184" t="n">
-        <v>272.4232</v>
+        <v>3188.7538</v>
       </c>
       <c r="G184" t="n">
-        <v>99.58166666666664</v>
+        <v>99.62499999999996</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E185" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F185" t="n">
-        <v>1000</v>
+        <v>272.4232</v>
       </c>
       <c r="G185" t="n">
-        <v>99.54999999999995</v>
+        <v>99.58166666666664</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="C186" t="n">
-        <v>97.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="D186" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="E186" t="n">
-        <v>97.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="F186" t="n">
-        <v>14894.3474</v>
+        <v>1000</v>
       </c>
       <c r="G186" t="n">
-        <v>99.50833333333328</v>
+        <v>99.54999999999995</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="C187" t="n">
-        <v>97.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="E187" t="n">
-        <v>97.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>10</v>
+        <v>14894.3474</v>
       </c>
       <c r="G187" t="n">
-        <v>99.47999999999996</v>
+        <v>99.50833333333328</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>97.8</v>
       </c>
       <c r="F188" t="n">
-        <v>999.9999</v>
+        <v>10</v>
       </c>
       <c r="G188" t="n">
-        <v>99.45166666666663</v>
+        <v>99.47999999999996</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C189" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="D189" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E189" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="F189" t="n">
-        <v>480.9999</v>
+        <v>999.9999</v>
       </c>
       <c r="G189" t="n">
-        <v>99.41499999999996</v>
+        <v>99.45166666666663</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>97.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C190" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="D190" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F190" t="n">
-        <v>3800</v>
+        <v>480.9999</v>
       </c>
       <c r="G190" t="n">
-        <v>99.38166666666663</v>
+        <v>99.41499999999996</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D191" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="E191" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>1354.5759</v>
+        <v>3800</v>
       </c>
       <c r="G191" t="n">
-        <v>99.35166666666665</v>
+        <v>99.38166666666663</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>98.09999999999999</v>
       </c>
       <c r="F192" t="n">
-        <v>4455.2789</v>
+        <v>1354.5759</v>
       </c>
       <c r="G192" t="n">
-        <v>99.31999999999998</v>
+        <v>99.35166666666665</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F193" t="n">
-        <v>227.6272</v>
+        <v>4455.2789</v>
       </c>
       <c r="G193" t="n">
-        <v>99.28999999999998</v>
+        <v>99.31999999999998</v>
       </c>
       <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5403,21 +5984,24 @@
         <v>98.2</v>
       </c>
       <c r="C194" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="D194" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="E194" t="n">
         <v>98.2</v>
       </c>
       <c r="F194" t="n">
-        <v>10029.6236</v>
+        <v>227.6272</v>
       </c>
       <c r="G194" t="n">
-        <v>99.24499999999998</v>
+        <v>99.28999999999998</v>
       </c>
       <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="C195" t="n">
-        <v>97.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D195" t="n">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="E195" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F195" t="n">
-        <v>816.2621</v>
+        <v>10029.6236</v>
       </c>
       <c r="G195" t="n">
-        <v>99.18833333333332</v>
+        <v>99.24499999999998</v>
       </c>
       <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="C196" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D196" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="E196" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>816.2621</v>
       </c>
       <c r="G196" t="n">
-        <v>99.13833333333332</v>
+        <v>99.18833333333332</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="C197" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="D197" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="E197" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="F197" t="n">
-        <v>2005.0427</v>
+        <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>99.07666666666665</v>
+        <v>99.13833333333332</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C198" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="D198" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="F198" t="n">
-        <v>10</v>
+        <v>2005.0427</v>
       </c>
       <c r="G198" t="n">
-        <v>99.00999999999999</v>
+        <v>99.07666666666665</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>97.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C199" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="D199" t="n">
-        <v>97.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E199" t="n">
-        <v>97.3</v>
+        <v>98</v>
       </c>
       <c r="F199" t="n">
-        <v>1276.6826</v>
+        <v>10</v>
       </c>
       <c r="G199" t="n">
-        <v>98.93166666666666</v>
+        <v>99.00999999999999</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C200" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="D200" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E200" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>1276.6826</v>
       </c>
       <c r="G200" t="n">
-        <v>98.88166666666666</v>
+        <v>98.93166666666666</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>98</v>
       </c>
       <c r="F201" t="n">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>98.84833333333333</v>
+        <v>98.88166666666666</v>
       </c>
       <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="C202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="D202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="E202" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="F202" t="n">
-        <v>1274.2285</v>
+        <v>106</v>
       </c>
       <c r="G202" t="n">
-        <v>98.77666666666666</v>
+        <v>98.84833333333333</v>
       </c>
       <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="C203" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="D203" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="E203" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F203" t="n">
-        <v>1693.7469</v>
+        <v>1274.2285</v>
       </c>
       <c r="G203" t="n">
-        <v>98.73333333333332</v>
+        <v>98.77666666666666</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="C204" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D204" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="E204" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>613.8787</v>
+        <v>1693.7469</v>
       </c>
       <c r="G204" t="n">
-        <v>98.69499999999998</v>
+        <v>98.73333333333332</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,21 +6303,24 @@
         <v>97.7</v>
       </c>
       <c r="C205" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="D205" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="E205" t="n">
         <v>97.7</v>
       </c>
       <c r="F205" t="n">
-        <v>650.7668</v>
+        <v>613.8787</v>
       </c>
       <c r="G205" t="n">
-        <v>98.64166666666665</v>
+        <v>98.69499999999998</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,7 +6329,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="C206" t="n">
         <v>97.8</v>
@@ -5721,15 +6338,18 @@
         <v>97.8</v>
       </c>
       <c r="E206" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="F206" t="n">
-        <v>5881.1996</v>
+        <v>650.7668</v>
       </c>
       <c r="G206" t="n">
-        <v>98.61333333333332</v>
+        <v>98.64166666666665</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="C207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="D207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="E207" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>5881.1996</v>
       </c>
       <c r="G207" t="n">
-        <v>98.55499999999999</v>
+        <v>98.61333333333332</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>97.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C208" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D208" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="E208" t="n">
-        <v>97.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F208" t="n">
-        <v>196.4741</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>98.49499999999998</v>
+        <v>98.55499999999999</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C209" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E209" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>1496.275</v>
+        <v>196.4741</v>
       </c>
       <c r="G209" t="n">
-        <v>98.44999999999999</v>
+        <v>98.49499999999998</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C210" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D210" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E210" t="n">
-        <v>98.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F210" t="n">
-        <v>592.1217</v>
+        <v>1496.275</v>
       </c>
       <c r="G210" t="n">
-        <v>98.41833333333332</v>
+        <v>98.44999999999999</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F211" t="n">
-        <v>10</v>
+        <v>592.1217</v>
       </c>
       <c r="G211" t="n">
-        <v>98.37166666666666</v>
+        <v>98.41833333333332</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E212" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F212" t="n">
-        <v>404.8564</v>
+        <v>10</v>
       </c>
       <c r="G212" t="n">
-        <v>98.33166666666666</v>
+        <v>98.37166666666666</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>404.8564</v>
       </c>
       <c r="G213" t="n">
-        <v>98.3</v>
+        <v>98.33166666666666</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F214" t="n">
-        <v>487.2675</v>
+        <v>10</v>
       </c>
       <c r="G214" t="n">
-        <v>98.26166666666668</v>
+        <v>98.3</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F215" t="n">
-        <v>2897.4358</v>
+        <v>487.2675</v>
       </c>
       <c r="G215" t="n">
-        <v>98.22000000000001</v>
+        <v>98.26166666666668</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>97.5</v>
       </c>
       <c r="F216" t="n">
-        <v>4640.5184</v>
+        <v>2897.4358</v>
       </c>
       <c r="G216" t="n">
-        <v>98.16166666666668</v>
+        <v>98.22000000000001</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6001,21 +6651,24 @@
         <v>97.5</v>
       </c>
       <c r="C217" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="D217" t="n">
         <v>97.5</v>
       </c>
       <c r="E217" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="F217" t="n">
-        <v>4681.7847</v>
+        <v>4640.5184</v>
       </c>
       <c r="G217" t="n">
-        <v>98.11833333333335</v>
+        <v>98.16166666666668</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="C218" t="n">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="D218" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="E218" t="n">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="F218" t="n">
-        <v>1751.3936</v>
+        <v>4681.7847</v>
       </c>
       <c r="G218" t="n">
-        <v>98.06500000000003</v>
+        <v>98.11833333333335</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="D219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E219" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>1751.3936</v>
       </c>
       <c r="G219" t="n">
-        <v>98.03166666666669</v>
+        <v>98.06500000000003</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F220" t="n">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>97.99666666666668</v>
+        <v>98.03166666666669</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E221" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F221" t="n">
-        <v>947.8148</v>
+        <v>8000</v>
       </c>
       <c r="G221" t="n">
-        <v>97.96833333333335</v>
+        <v>97.99666666666668</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="D222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E222" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F222" t="n">
-        <v>10</v>
+        <v>947.8148</v>
       </c>
       <c r="G222" t="n">
-        <v>97.95000000000002</v>
+        <v>97.96833333333335</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>97.90000000000001</v>
       </c>
       <c r="F223" t="n">
-        <v>680.6588</v>
+        <v>10</v>
       </c>
       <c r="G223" t="n">
-        <v>97.93666666666668</v>
+        <v>97.95000000000002</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,544 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>97.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>97.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D224" t="n">
-        <v>97.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>97.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F224" t="n">
-        <v>909.663</v>
+        <v>680.6588</v>
       </c>
       <c r="G224" t="n">
-        <v>97.91333333333336</v>
+        <v>97.93666666666668</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E225" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>799.6961</v>
-      </c>
-      <c r="G225" t="n">
-        <v>97.89333333333336</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E226" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F226" t="n">
-        <v>399.9999</v>
-      </c>
-      <c r="G226" t="n">
-        <v>97.87500000000001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="D227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E227" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F227" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G227" t="n">
-        <v>97.85666666666667</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="E228" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F228" t="n">
-        <v>10</v>
-      </c>
-      <c r="G228" t="n">
-        <v>97.84333333333333</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="C229" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D229" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E229" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F229" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G229" t="n">
-        <v>97.81666666666668</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C230" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D230" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E230" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F230" t="n">
-        <v>50652.5023</v>
-      </c>
-      <c r="G230" t="n">
-        <v>97.78500000000001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C231" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="D231" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E231" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="F231" t="n">
-        <v>6115.6809</v>
-      </c>
-      <c r="G231" t="n">
-        <v>97.75333333333333</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E232" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F232" t="n">
-        <v>556.9690000000001</v>
-      </c>
-      <c r="G232" t="n">
-        <v>97.74333333333334</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="C233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="E233" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="F233" t="n">
-        <v>549.213</v>
-      </c>
-      <c r="G233" t="n">
-        <v>97.73166666666667</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E234" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F234" t="n">
-        <v>10</v>
-      </c>
-      <c r="G234" t="n">
-        <v>97.72500000000001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C235" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="D235" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E235" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F235" t="n">
-        <v>16473.0209</v>
-      </c>
-      <c r="G235" t="n">
-        <v>97.71500000000002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="C236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E236" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1012</v>
-      </c>
-      <c r="G236" t="n">
-        <v>97.70333333333336</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C237" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D237" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="E237" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F237" t="n">
-        <v>7186.1521</v>
-      </c>
-      <c r="G237" t="n">
-        <v>97.67500000000003</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E238" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F238" t="n">
-        <v>10953.6271</v>
-      </c>
-      <c r="G238" t="n">
-        <v>97.66333333333337</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C239" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D239" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E239" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F239" t="n">
-        <v>29430.8658</v>
-      </c>
-      <c r="G239" t="n">
-        <v>97.64500000000002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C240" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D240" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="E240" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F240" t="n">
-        <v>34626.3769</v>
-      </c>
-      <c r="G240" t="n">
-        <v>97.61500000000004</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E241" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F241" t="n">
-        <v>10</v>
-      </c>
-      <c r="G241" t="n">
-        <v>97.6016666666667</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E242" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F242" t="n">
-        <v>190</v>
-      </c>
-      <c r="G242" t="n">
-        <v>97.58666666666669</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C243" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D243" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="E243" t="n">
-        <v>96</v>
-      </c>
-      <c r="F243" t="n">
-        <v>12974.5234</v>
-      </c>
-      <c r="G243" t="n">
-        <v>97.58166666666671</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="C244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="D244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="E244" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F244" t="n">
-        <v>541.3528</v>
-      </c>
-      <c r="G244" t="n">
-        <v>97.57833333333336</v>
-      </c>
-      <c r="H244" t="n">
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
